--- a/biology/Zoologie/Austrochaperina/Austrochaperina.xlsx
+++ b/biology/Zoologie/Austrochaperina/Austrochaperina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Austrochaperina est un genre d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Austrochaperina est un genre d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 25 espèces de ce genre se rencontrent en Nouvelle-Guinée, dans l'archipel Bismarck et dans le nord de l'Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 25 espèces de ce genre se rencontrent en Nouvelle-Guinée, dans l'archipel Bismarck et dans le nord de l'Australie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ce genre diffère du genre Chaperina notamment par :
 des tympans non distincts ou cachés ;
@@ -576,9 +592,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (17 septembre 2015)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (17 septembre 2015) :
 Austrochaperina adamantina Zweifel, 2000
 Austrochaperina adelphe (Zweifel, 1985)
 Austrochaperina alexanderi Günther, Richards &amp; Dahl, 2014
@@ -631,7 +649,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de ce genre se composé du préfixe austro-, du latin australis, « du sud », et de chaperina en référence au genre du même nom auquel il est fortement apparenté. Le genre Chaperina regroupe des espèces vivant un peu plus au nord, sur Bornéo ou en Nouvelle-Guinée.
 </t>
@@ -662,7 +682,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Fry, 1912 : Description of Austrochaperina a new Genus of Engystomatidae from North Australia. Records of the Australian Museum, vol. 9, p. 87-106 (texte intégral).</t>
         </is>
